--- a/app/data/absenteeism_data_18.xlsx
+++ b/app/data/absenteeism_data_18.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21918</v>
+        <v>90192</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marcos Vinicius Nogueira</t>
+          <t>Dra. Marcela Ramos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,196 +494,196 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45086</v>
+        <v>45099</v>
       </c>
       <c r="G2" t="n">
-        <v>7867.04</v>
+        <v>9786.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12660</v>
+        <v>95112</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paulo Costa</t>
+          <t>Elisa Teixeira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>3196.34</v>
+        <v>8248.549999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19187</v>
+        <v>43938</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mirella Barros</t>
+          <t>Dr. Vinicius Barros</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45101</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>10927.54</v>
+        <v>4903.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91185</v>
+        <v>1203</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pietro Gonçalves</t>
+          <t>Rafaela Gonçalves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45083</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>6337.88</v>
+        <v>5928.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>55076</v>
+        <v>27547</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Camila das Neves</t>
+          <t>Bárbara Nogueira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45104</v>
       </c>
       <c r="G6" t="n">
-        <v>8604.57</v>
+        <v>5166.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>87212</v>
+        <v>66548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Sophia Martins</t>
+          <t>Dr. Emanuel Duarte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>7990.95</v>
+        <v>10857.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>69324</v>
+        <v>88219</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Davi Caldeira</t>
+          <t>Caio Jesus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G8" t="n">
-        <v>7294.82</v>
+        <v>11509.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>45676</v>
+        <v>84171</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sarah Viana</t>
+          <t>Luiz Felipe Peixoto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,56 +697,56 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>5159.39</v>
+        <v>9551.07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3701</v>
+        <v>92708</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Mirella Jesus</t>
+          <t>Ana Julia Mendes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>10586.42</v>
+        <v>5976.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29637</v>
+        <v>40057</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Emanuel Ramos</t>
+          <t>Marina da Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>5519.36</v>
+        <v>8156.22</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_18.xlsx
+++ b/app/data/absenteeism_data_18.xlsx
@@ -476,69 +476,69 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47481</v>
+        <v>15536</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Felipe Gonçalves</t>
+          <t>Yuri Ramos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45081</v>
+        <v>45084</v>
       </c>
       <c r="G2" t="n">
-        <v>6939.89</v>
+        <v>10748.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68673</v>
+        <v>9845</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brenda Moreira</t>
+          <t>Júlia Costela</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>5028.48</v>
+        <v>8173.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>53509</v>
+        <v>77014</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clarice Azevedo</t>
+          <t>Luiz Gustavo Azevedo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,118 +548,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>4381.35</v>
+        <v>6151.06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10982</v>
+        <v>69642</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fernanda Azevedo</t>
+          <t>Laís Martins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45079</v>
+        <v>45092</v>
       </c>
       <c r="G5" t="n">
-        <v>5871.62</v>
+        <v>4694.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>84678</v>
+        <v>88954</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Moraes</t>
+          <t>Maria Clara Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45094</v>
+        <v>45080</v>
       </c>
       <c r="G6" t="n">
-        <v>11908.35</v>
+        <v>4970.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>37069</v>
+        <v>23613</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Theo Nogueira</t>
+          <t>Enrico da Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="G7" t="n">
-        <v>12365.53</v>
+        <v>3826.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>86711</v>
+        <v>93348</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Daniela das Neves</t>
+          <t>Erick Martins</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,27 +668,27 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>5502.48</v>
+        <v>11627.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>86366</v>
+        <v>84289</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Olivia Pereira</t>
+          <t>Davi Peixoto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,71 +697,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45099</v>
+        <v>45088</v>
       </c>
       <c r="G9" t="n">
-        <v>11529.32</v>
+        <v>10966.63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>43244</v>
+        <v>20241</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Ana Clara Gonçalves</t>
+          <t>Daniela Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45093</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>9636.77</v>
+        <v>11933.21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>83412</v>
+        <v>70338</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Manuela Vieira</t>
+          <t>Luiz Otávio Pires</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45095</v>
+        <v>45099</v>
       </c>
       <c r="G11" t="n">
-        <v>6910.65</v>
+        <v>4556.11</v>
       </c>
     </row>
   </sheetData>
